--- a/WJM/data/Production_Filled_September.xlsx
+++ b/WJM/data/Production_Filled_September.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -446,7 +446,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -633,11 +633,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -732,9 +775,6 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -743,6 +783,48 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6863,8 +6945,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AR34" sqref="AR34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7942,7 +8025,7 @@
       </c>
       <c r="AT10" s="12"/>
     </row>
-    <row r="11" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>45911</v>
       </c>
@@ -8568,55 +8651,104 @@
       <c r="A17" s="8">
         <v>45918</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
+      <c r="B17" s="12">
+        <v>47.222999999999999</v>
+      </c>
+      <c r="C17" s="12">
+        <v>3.0419999999999998</v>
+      </c>
       <c r="D17" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+        <v>50.265000000000001</v>
+      </c>
+      <c r="E17" s="12">
+        <v>45.543999999999997</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="G17" s="12">
+        <v>3.05</v>
+      </c>
+      <c r="H17" s="12">
+        <v>5.9169999999999998</v>
+      </c>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
+      <c r="K17" s="12">
+        <f>0.551+0.433+0.131</f>
+        <v>1.115</v>
+      </c>
+      <c r="L17" s="12">
+        <v>163.01400000000001</v>
+      </c>
+      <c r="M17" s="12">
+        <v>70.05</v>
+      </c>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
+      <c r="P17" s="12">
+        <v>0.70699999999999996</v>
+      </c>
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
       <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
+      <c r="U17" s="12">
+        <v>27.663</v>
+      </c>
+      <c r="V17" s="12">
+        <v>259.33300000000003</v>
+      </c>
+      <c r="W17" s="12">
+        <v>308.71600000000001</v>
+      </c>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
+      <c r="Z17" s="12">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="AA17" s="12">
+        <v>2.661</v>
+      </c>
+      <c r="AB17" s="12">
+        <v>1.4359999999999999</v>
+      </c>
       <c r="AC17" s="12"/>
       <c r="AD17" s="12"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="12"/>
+      <c r="AE17" s="12">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="AF17" s="12">
+        <v>22.806999999999999</v>
+      </c>
+      <c r="AG17" s="12">
+        <v>23.998000000000001</v>
+      </c>
       <c r="AH17" s="12"/>
       <c r="AI17" s="12"/>
-      <c r="AJ17" s="12"/>
-      <c r="AK17" s="12"/>
-      <c r="AL17" s="12"/>
+      <c r="AJ17" s="12">
+        <v>1.284</v>
+      </c>
+      <c r="AK17" s="12">
+        <v>24.16</v>
+      </c>
+      <c r="AL17" s="12">
+        <v>155.559</v>
+      </c>
       <c r="AM17" s="12"/>
       <c r="AN17" s="12"/>
       <c r="AO17" s="12"/>
       <c r="AP17" s="12"/>
-      <c r="AQ17" s="12"/>
-      <c r="AR17" s="12"/>
+      <c r="AQ17" s="12">
+        <v>163.239</v>
+      </c>
+      <c r="AR17" s="12">
+        <v>20.444500000000001</v>
+      </c>
       <c r="AS17" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>183.68350000000001</v>
       </c>
       <c r="AT17" s="12"/>
     </row>
@@ -8624,55 +8756,104 @@
       <c r="A18" s="8">
         <v>45920</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="B18" s="12">
+        <v>41.591999999999999</v>
+      </c>
+      <c r="C18" s="12">
+        <v>3.0070000000000001</v>
+      </c>
       <c r="D18" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+        <v>44.598999999999997</v>
+      </c>
+      <c r="E18" s="12">
+        <v>45.662999999999997</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="G18" s="12">
+        <v>3.05</v>
+      </c>
+      <c r="H18" s="12">
+        <v>5.9649999999999999</v>
+      </c>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
+      <c r="K18" s="12">
+        <f>0.251+0.368+0.433+0.197</f>
+        <v>1.2490000000000001</v>
+      </c>
+      <c r="L18" s="12">
+        <v>165.48099999999999</v>
+      </c>
+      <c r="M18" s="12">
+        <v>70.05</v>
+      </c>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
+      <c r="P18" s="12">
+        <v>0.70699999999999996</v>
+      </c>
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
       <c r="S18" s="12"/>
       <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
+      <c r="U18" s="12">
+        <v>27.875</v>
+      </c>
+      <c r="V18" s="12">
+        <v>258.58699999999999</v>
+      </c>
+      <c r="W18" s="12">
+        <v>325.23599999999999</v>
+      </c>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="12"/>
+      <c r="Z18" s="12">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="AA18" s="12">
+        <v>2.6539999999999999</v>
+      </c>
+      <c r="AB18" s="12">
+        <v>1.518</v>
+      </c>
       <c r="AC18" s="12"/>
       <c r="AD18" s="12"/>
-      <c r="AE18" s="12"/>
-      <c r="AF18" s="12"/>
-      <c r="AG18" s="12"/>
+      <c r="AE18" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="AF18" s="12">
+        <v>22.806999999999999</v>
+      </c>
+      <c r="AG18" s="12">
+        <v>23.998000000000001</v>
+      </c>
       <c r="AH18" s="12"/>
       <c r="AI18" s="12"/>
-      <c r="AJ18" s="12"/>
-      <c r="AK18" s="12"/>
-      <c r="AL18" s="12"/>
+      <c r="AJ18" s="12">
+        <v>1.177</v>
+      </c>
+      <c r="AK18" s="12">
+        <v>25.337</v>
+      </c>
+      <c r="AL18" s="12">
+        <v>155.559</v>
+      </c>
       <c r="AM18" s="12"/>
       <c r="AN18" s="12"/>
       <c r="AO18" s="12"/>
       <c r="AP18" s="12"/>
-      <c r="AQ18" s="12"/>
-      <c r="AR18" s="12"/>
+      <c r="AQ18" s="12">
+        <v>173.464</v>
+      </c>
+      <c r="AR18" s="12">
+        <v>19.635000000000002</v>
+      </c>
       <c r="AS18" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>193.09899999999999</v>
       </c>
       <c r="AT18" s="12"/>
     </row>
@@ -8680,21 +8861,39 @@
       <c r="A19" s="8">
         <v>45921</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="12">
+        <v>50.17</v>
+      </c>
+      <c r="C19" s="12">
+        <v>2.7450000000000001</v>
+      </c>
       <c r="D19" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+        <v>52.914999999999999</v>
+      </c>
+      <c r="E19" s="12">
+        <v>46.031999999999996</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="G19" s="12">
+        <v>3.05</v>
+      </c>
+      <c r="H19" s="12">
+        <v>5.9770000000000003</v>
+      </c>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
+      <c r="K19" s="12">
+        <v>1.214</v>
+      </c>
+      <c r="L19" s="12">
+        <v>54.335999999999999</v>
+      </c>
+      <c r="M19" s="12">
+        <v>164.505</v>
+      </c>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
@@ -8702,33 +8901,61 @@
       <c r="R19" s="12"/>
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
+      <c r="U19" s="12">
+        <v>26.923999999999999</v>
+      </c>
+      <c r="V19" s="12">
+        <v>259.90699999999998</v>
+      </c>
+      <c r="W19" s="12">
+        <v>354.416</v>
+      </c>
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="12"/>
+      <c r="Z19" s="12">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="AA19" s="12">
+        <v>2.6469999999999998</v>
+      </c>
+      <c r="AB19" s="12">
+        <v>1.599</v>
+      </c>
       <c r="AC19" s="12"/>
       <c r="AD19" s="12"/>
-      <c r="AE19" s="12"/>
-      <c r="AF19" s="12"/>
-      <c r="AG19" s="12"/>
+      <c r="AE19" s="12">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="AF19" s="12">
+        <v>22.806999999999999</v>
+      </c>
+      <c r="AG19" s="12">
+        <v>22.323</v>
+      </c>
       <c r="AH19" s="12"/>
       <c r="AI19" s="12"/>
-      <c r="AJ19" s="12"/>
-      <c r="AK19" s="12"/>
-      <c r="AL19" s="12"/>
+      <c r="AJ19" s="12">
+        <v>1.177</v>
+      </c>
+      <c r="AK19" s="12">
+        <v>26.193000000000001</v>
+      </c>
+      <c r="AL19" s="12">
+        <v>155.559</v>
+      </c>
       <c r="AM19" s="12"/>
       <c r="AN19" s="12"/>
       <c r="AO19" s="12"/>
       <c r="AP19" s="12"/>
-      <c r="AQ19" s="12"/>
-      <c r="AR19" s="12"/>
+      <c r="AQ19" s="12">
+        <v>185.114</v>
+      </c>
+      <c r="AR19" s="12">
+        <v>19.664999999999999</v>
+      </c>
       <c r="AS19" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>204.779</v>
       </c>
       <c r="AT19" s="12"/>
     </row>
@@ -8736,21 +8963,39 @@
       <c r="A20" s="8">
         <v>45922</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
+      <c r="B20" s="12">
+        <v>40.978999999999999</v>
+      </c>
+      <c r="C20" s="12">
+        <v>3.0409999999999999</v>
+      </c>
       <c r="D20" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+        <v>44.019999999999996</v>
+      </c>
+      <c r="E20" s="12">
+        <v>46.167999999999999</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="G20" s="12">
+        <v>3.05</v>
+      </c>
+      <c r="H20" s="12">
+        <v>5.9770000000000003</v>
+      </c>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
+      <c r="K20" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="L20" s="12">
+        <v>165.428</v>
+      </c>
+      <c r="M20" s="12">
+        <v>54.683</v>
+      </c>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
@@ -8758,33 +9003,61 @@
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
       <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
+      <c r="U20" s="12">
+        <v>27.687999999999999</v>
+      </c>
+      <c r="V20" s="12">
+        <v>267.15100000000001</v>
+      </c>
+      <c r="W20" s="12">
+        <v>375.10599999999999</v>
+      </c>
       <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="12"/>
+      <c r="Z20" s="12">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="AA20" s="12">
+        <v>2.794</v>
+      </c>
+      <c r="AB20" s="12">
+        <v>1.599</v>
+      </c>
       <c r="AC20" s="12"/>
       <c r="AD20" s="12"/>
-      <c r="AE20" s="12"/>
-      <c r="AF20" s="12"/>
-      <c r="AG20" s="12"/>
+      <c r="AE20" s="12">
+        <v>0.47</v>
+      </c>
+      <c r="AF20" s="12">
+        <v>22.806999999999999</v>
+      </c>
+      <c r="AG20" s="12">
+        <v>22.323</v>
+      </c>
       <c r="AH20" s="12"/>
       <c r="AI20" s="12"/>
-      <c r="AJ20" s="12"/>
-      <c r="AK20" s="12"/>
-      <c r="AL20" s="12"/>
+      <c r="AJ20" s="12">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="AK20" s="12">
+        <v>27.155999999999999</v>
+      </c>
+      <c r="AL20" s="12">
+        <v>155.81</v>
+      </c>
       <c r="AM20" s="12"/>
       <c r="AN20" s="12"/>
       <c r="AO20" s="12"/>
       <c r="AP20" s="12"/>
-      <c r="AQ20" s="12"/>
-      <c r="AR20" s="12"/>
+      <c r="AQ20" s="12">
+        <v>175.60900000000001</v>
+      </c>
+      <c r="AR20" s="12">
+        <v>19.545000000000002</v>
+      </c>
       <c r="AS20" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>195.154</v>
       </c>
       <c r="AT20" s="12"/>
     </row>
@@ -8792,55 +9065,104 @@
       <c r="A21" s="8">
         <v>45923</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
+      <c r="B21" s="12">
+        <v>44.588999999999999</v>
+      </c>
+      <c r="C21" s="12">
+        <v>2.73</v>
+      </c>
       <c r="D21" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+        <v>47.318999999999996</v>
+      </c>
+      <c r="E21" s="12">
+        <v>46.417000000000002</v>
+      </c>
+      <c r="F21" s="12">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="G21" s="12">
+        <v>3.05</v>
+      </c>
+      <c r="H21" s="12">
+        <v>6.2169999999999996</v>
+      </c>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
+      <c r="K21" s="12">
+        <f>0.368+0.65+0.131</f>
+        <v>1.149</v>
+      </c>
+      <c r="L21" s="12">
+        <v>166.446</v>
+      </c>
+      <c r="M21" s="12">
+        <v>54.683</v>
+      </c>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
+      <c r="P21" s="12">
+        <v>0.70699999999999996</v>
+      </c>
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
       <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
+      <c r="U21" s="12">
+        <v>27.751000000000001</v>
+      </c>
+      <c r="V21" s="12">
+        <v>267.154</v>
+      </c>
+      <c r="W21" s="12">
+        <v>329.286</v>
+      </c>
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="12"/>
+      <c r="Z21" s="12">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="AA21" s="12">
+        <v>2.887</v>
+      </c>
+      <c r="AB21" s="12">
+        <v>1.6539999999999999</v>
+      </c>
       <c r="AC21" s="12"/>
       <c r="AD21" s="12"/>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="12"/>
-      <c r="AG21" s="12"/>
+      <c r="AE21" s="12">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="AF21" s="12">
+        <v>22.806999999999999</v>
+      </c>
+      <c r="AG21" s="12">
+        <v>22.323</v>
+      </c>
       <c r="AH21" s="12"/>
       <c r="AI21" s="12"/>
-      <c r="AJ21" s="12"/>
-      <c r="AK21" s="12"/>
-      <c r="AL21" s="12"/>
+      <c r="AJ21" s="12">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="AK21" s="12">
+        <v>27.155999999999999</v>
+      </c>
+      <c r="AL21" s="12">
+        <v>155.81</v>
+      </c>
       <c r="AM21" s="12"/>
       <c r="AN21" s="12"/>
       <c r="AO21" s="12"/>
       <c r="AP21" s="12"/>
-      <c r="AQ21" s="12"/>
-      <c r="AR21" s="12"/>
+      <c r="AQ21" s="12">
+        <v>174.26900000000001</v>
+      </c>
+      <c r="AR21" s="12">
+        <v>19.8</v>
+      </c>
       <c r="AS21" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>194.06900000000002</v>
       </c>
       <c r="AT21" s="12"/>
     </row>
@@ -8848,21 +9170,39 @@
       <c r="A22" s="8">
         <v>45924</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
+      <c r="B22" s="12">
+        <v>44.046999999999997</v>
+      </c>
+      <c r="C22" s="12">
+        <v>2.8220000000000001</v>
+      </c>
       <c r="D22" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+        <v>46.869</v>
+      </c>
+      <c r="E22" s="12">
+        <v>46.25</v>
+      </c>
+      <c r="F22" s="12">
+        <v>0.69</v>
+      </c>
+      <c r="G22" s="12">
+        <v>3.05</v>
+      </c>
+      <c r="H22" s="12">
+        <v>6.2770000000000001</v>
+      </c>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="K22" s="12">
+        <v>1.196</v>
+      </c>
+      <c r="L22" s="12">
+        <v>165.82</v>
+      </c>
+      <c r="M22" s="12">
+        <v>57.082000000000001</v>
+      </c>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
@@ -8870,33 +9210,61 @@
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
       <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
+      <c r="U22" s="12">
+        <v>28.907</v>
+      </c>
+      <c r="V22" s="12">
+        <v>278.93299999999999</v>
+      </c>
+      <c r="W22" s="12">
+        <v>210.946</v>
+      </c>
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
+      <c r="Z22" s="12">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="AA22" s="12">
+        <v>3.0339999999999998</v>
+      </c>
+      <c r="AB22" s="12">
+        <v>1.6539999999999999</v>
+      </c>
       <c r="AC22" s="12"/>
       <c r="AD22" s="12"/>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="12"/>
+      <c r="AE22" s="12">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="AF22" s="12">
+        <v>22.806999999999999</v>
+      </c>
+      <c r="AG22" s="12">
+        <v>22.323</v>
+      </c>
       <c r="AH22" s="12"/>
       <c r="AI22" s="12"/>
-      <c r="AJ22" s="12"/>
-      <c r="AK22" s="12"/>
-      <c r="AL22" s="12"/>
+      <c r="AJ22" s="12">
+        <v>1.177</v>
+      </c>
+      <c r="AK22" s="12">
+        <v>28.332999999999998</v>
+      </c>
+      <c r="AL22" s="12">
+        <v>155.81</v>
+      </c>
       <c r="AM22" s="12"/>
       <c r="AN22" s="12"/>
       <c r="AO22" s="12"/>
       <c r="AP22" s="12"/>
-      <c r="AQ22" s="12"/>
-      <c r="AR22" s="12"/>
+      <c r="AQ22" s="12">
+        <v>182.53899999999999</v>
+      </c>
+      <c r="AR22" s="12">
+        <v>20.175000000000001</v>
+      </c>
       <c r="AS22" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>202.714</v>
       </c>
       <c r="AT22" s="12"/>
     </row>
@@ -8904,21 +9272,39 @@
       <c r="A23" s="8">
         <v>45925</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
+      <c r="B23" s="12">
+        <v>47.17</v>
+      </c>
+      <c r="C23" s="12">
+        <v>2.8090000000000002</v>
+      </c>
       <c r="D23" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+        <v>49.978999999999999</v>
+      </c>
+      <c r="E23" s="12">
+        <v>46.052999999999997</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0.747</v>
+      </c>
+      <c r="G23" s="12">
+        <v>3.05</v>
+      </c>
+      <c r="H23" s="12">
+        <v>6.2770000000000001</v>
+      </c>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
+      <c r="K23" s="12">
+        <v>1.214</v>
+      </c>
+      <c r="L23" s="12">
+        <v>166.83799999999999</v>
+      </c>
+      <c r="M23" s="12">
+        <v>57.082000000000001</v>
+      </c>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
@@ -8926,33 +9312,61 @@
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
+      <c r="U23" s="12">
+        <v>29.306000000000001</v>
+      </c>
+      <c r="V23" s="12">
+        <v>284.63299999999998</v>
+      </c>
+      <c r="W23" s="12">
+        <v>195.286</v>
+      </c>
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
+      <c r="Z23" s="12">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="AA23" s="12">
+        <v>3.0339999999999998</v>
+      </c>
+      <c r="AB23" s="12">
+        <v>1.7629999999999999</v>
+      </c>
       <c r="AC23" s="12"/>
       <c r="AD23" s="12"/>
-      <c r="AE23" s="12"/>
-      <c r="AF23" s="12"/>
-      <c r="AG23" s="12"/>
+      <c r="AE23" s="12">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="AF23" s="12">
+        <v>23.225999999999999</v>
+      </c>
+      <c r="AG23" s="12">
+        <v>22.323</v>
+      </c>
       <c r="AH23" s="12"/>
       <c r="AI23" s="12"/>
-      <c r="AJ23" s="12"/>
-      <c r="AK23" s="12"/>
-      <c r="AL23" s="12"/>
+      <c r="AJ23" s="12">
+        <v>1.284</v>
+      </c>
+      <c r="AK23" s="12">
+        <v>29.617000000000001</v>
+      </c>
+      <c r="AL23" s="12">
+        <v>155.81</v>
+      </c>
       <c r="AM23" s="12"/>
       <c r="AN23" s="12"/>
       <c r="AO23" s="12"/>
       <c r="AP23" s="12"/>
-      <c r="AQ23" s="12"/>
-      <c r="AR23" s="12"/>
+      <c r="AQ23" s="12">
+        <v>182.53899999999999</v>
+      </c>
+      <c r="AR23" s="12">
+        <v>20.175000000000001</v>
+      </c>
       <c r="AS23" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>202.714</v>
       </c>
       <c r="AT23" s="12"/>
     </row>
@@ -8960,21 +9374,39 @@
       <c r="A24" s="8">
         <v>45927</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
+      <c r="B24" s="12">
+        <v>41.08</v>
+      </c>
+      <c r="C24" s="12">
+        <v>3.5579999999999998</v>
+      </c>
       <c r="D24" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+        <v>44.637999999999998</v>
+      </c>
+      <c r="E24" s="12">
+        <v>46.103999999999999</v>
+      </c>
+      <c r="F24" s="12">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="G24" s="12">
+        <v>3.05</v>
+      </c>
+      <c r="H24" s="12">
+        <v>5.9169999999999998</v>
+      </c>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
+      <c r="K24" s="12">
+        <v>1.28</v>
+      </c>
+      <c r="L24" s="12">
+        <v>166.38</v>
+      </c>
+      <c r="M24" s="12">
+        <v>54</v>
+      </c>
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
@@ -8982,33 +9414,61 @@
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
+      <c r="U24" s="12">
+        <v>29.597000000000001</v>
+      </c>
+      <c r="V24" s="12">
+        <v>279.58</v>
+      </c>
+      <c r="W24" s="12">
+        <v>227.76599999999999</v>
+      </c>
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="12"/>
+      <c r="Z24" s="12">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="AA24" s="12">
+        <v>3.0470000000000002</v>
+      </c>
+      <c r="AB24" s="12">
+        <v>1.899</v>
+      </c>
       <c r="AC24" s="12"/>
       <c r="AD24" s="12"/>
-      <c r="AE24" s="12"/>
-      <c r="AF24" s="12"/>
-      <c r="AG24" s="12"/>
+      <c r="AE24" s="12">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="AF24" s="12">
+        <v>23.225999999999999</v>
+      </c>
+      <c r="AG24" s="12">
+        <v>22.323</v>
+      </c>
       <c r="AH24" s="12"/>
       <c r="AI24" s="12"/>
-      <c r="AJ24" s="12"/>
-      <c r="AK24" s="12"/>
-      <c r="AL24" s="12"/>
+      <c r="AJ24" s="12">
+        <v>1.177</v>
+      </c>
+      <c r="AK24" s="12">
+        <v>30.794</v>
+      </c>
+      <c r="AL24" s="12">
+        <v>155.81</v>
+      </c>
       <c r="AM24" s="12"/>
       <c r="AN24" s="12"/>
       <c r="AO24" s="12"/>
       <c r="AP24" s="12"/>
-      <c r="AQ24" s="12"/>
-      <c r="AR24" s="12"/>
+      <c r="AQ24" s="12">
+        <v>168.90899999999999</v>
+      </c>
+      <c r="AR24" s="12">
+        <v>22.844999999999999</v>
+      </c>
       <c r="AS24" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>191.75399999999999</v>
       </c>
       <c r="AT24" s="12"/>
     </row>
@@ -9016,55 +9476,104 @@
       <c r="A25" s="8">
         <v>45928</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="B25" s="12">
+        <v>36.354999999999997</v>
+      </c>
+      <c r="C25" s="12">
+        <v>3.198</v>
+      </c>
       <c r="D25" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+        <v>39.552999999999997</v>
+      </c>
+      <c r="E25" s="12">
+        <v>46.255000000000003</v>
+      </c>
+      <c r="F25" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="G25" s="12">
+        <v>3.05</v>
+      </c>
+      <c r="H25" s="12">
+        <v>5.1970000000000001</v>
+      </c>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
+      <c r="K25" s="12">
+        <f>0.503+0.217+0.264+0.197</f>
+        <v>1.181</v>
+      </c>
+      <c r="L25" s="12">
+        <v>168.06899999999999</v>
+      </c>
+      <c r="M25" s="12">
+        <v>54</v>
+      </c>
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
+      <c r="P25" s="12">
+        <v>0.70699999999999996</v>
+      </c>
       <c r="Q25" s="12"/>
       <c r="R25" s="12"/>
       <c r="S25" s="12"/>
       <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
+      <c r="U25" s="12">
+        <v>29.69</v>
+      </c>
+      <c r="V25" s="12">
+        <v>283.07</v>
+      </c>
+      <c r="W25" s="12">
+        <v>252.99600000000001</v>
+      </c>
       <c r="X25" s="12"/>
       <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="12"/>
+      <c r="Z25" s="12">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="AA25" s="12">
+        <v>3.194</v>
+      </c>
+      <c r="AB25" s="12">
+        <v>1.899</v>
+      </c>
       <c r="AC25" s="12"/>
       <c r="AD25" s="12"/>
-      <c r="AE25" s="12"/>
-      <c r="AF25" s="12"/>
-      <c r="AG25" s="12"/>
+      <c r="AE25" s="12">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="AF25" s="12">
+        <v>23.643999999999998</v>
+      </c>
+      <c r="AG25" s="12">
+        <v>22.323</v>
+      </c>
       <c r="AH25" s="12"/>
       <c r="AI25" s="12"/>
-      <c r="AJ25" s="12"/>
-      <c r="AK25" s="12"/>
-      <c r="AL25" s="12"/>
+      <c r="AJ25" s="12">
+        <v>1.177</v>
+      </c>
+      <c r="AK25" s="12">
+        <v>31.971</v>
+      </c>
+      <c r="AL25" s="12">
+        <v>155.81</v>
+      </c>
       <c r="AM25" s="12"/>
       <c r="AN25" s="12"/>
       <c r="AO25" s="12"/>
       <c r="AP25" s="12"/>
-      <c r="AQ25" s="12"/>
-      <c r="AR25" s="12"/>
+      <c r="AQ25" s="12">
+        <v>164.09299999999999</v>
+      </c>
+      <c r="AR25" s="12">
+        <v>24.48</v>
+      </c>
       <c r="AS25" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>188.57299999999998</v>
       </c>
       <c r="AT25" s="12"/>
     </row>
@@ -9072,55 +9581,104 @@
       <c r="A26" s="8">
         <v>45929</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
+      <c r="B26" s="12">
+        <v>39.39</v>
+      </c>
+      <c r="C26" s="12">
+        <v>2.69</v>
+      </c>
       <c r="D26" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+        <v>42.08</v>
+      </c>
+      <c r="E26" s="12">
+        <v>46.11</v>
+      </c>
+      <c r="F26" s="12">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="G26" s="12">
+        <v>3.05</v>
+      </c>
+      <c r="H26" s="12">
+        <v>5.9169999999999998</v>
+      </c>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
+      <c r="K26" s="12">
+        <f>0.503+0.184+0.217+0.197</f>
+        <v>1.101</v>
+      </c>
+      <c r="L26" s="12">
+        <v>168.845</v>
+      </c>
+      <c r="M26" s="12">
+        <v>54.65</v>
+      </c>
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
+      <c r="P26" s="12">
+        <v>0.70699999999999996</v>
+      </c>
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
       <c r="S26" s="12"/>
       <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
+      <c r="U26" s="12">
+        <v>29.567</v>
+      </c>
+      <c r="V26" s="12">
+        <v>294.01400000000001</v>
+      </c>
+      <c r="W26" s="12">
+        <v>272.71600000000001</v>
+      </c>
       <c r="X26" s="12"/>
       <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="12"/>
+      <c r="Z26" s="12">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="AA26" s="12">
+        <v>3.2349999999999999</v>
+      </c>
+      <c r="AB26" s="12">
+        <v>1.9970000000000001</v>
+      </c>
       <c r="AC26" s="12"/>
       <c r="AD26" s="12"/>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="12"/>
+      <c r="AE26" s="12">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="AF26" s="12">
+        <v>23.643999999999998</v>
+      </c>
+      <c r="AG26" s="12">
+        <v>22.323</v>
+      </c>
       <c r="AH26" s="12"/>
       <c r="AI26" s="12"/>
-      <c r="AJ26" s="12"/>
-      <c r="AK26" s="12"/>
-      <c r="AL26" s="12"/>
+      <c r="AJ26" s="12">
+        <v>1.284</v>
+      </c>
+      <c r="AK26" s="12">
+        <v>33.255000000000003</v>
+      </c>
+      <c r="AL26" s="12">
+        <v>155.81</v>
+      </c>
       <c r="AM26" s="12"/>
       <c r="AN26" s="12"/>
       <c r="AO26" s="12"/>
       <c r="AP26" s="12"/>
-      <c r="AQ26" s="12"/>
-      <c r="AR26" s="12"/>
+      <c r="AQ26" s="12">
+        <v>166.81800000000001</v>
+      </c>
+      <c r="AR26" s="12">
+        <v>24.645</v>
+      </c>
       <c r="AS26" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>191.46300000000002</v>
       </c>
       <c r="AT26" s="12"/>
     </row>
@@ -9128,21 +9686,39 @@
       <c r="A27" s="8">
         <v>45930</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
+      <c r="B27" s="12">
+        <v>37.076999999999998</v>
+      </c>
+      <c r="C27" s="12">
+        <v>2.76</v>
+      </c>
       <c r="D27" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+        <v>39.836999999999996</v>
+      </c>
+      <c r="E27" s="12">
+        <v>42.715000000000003</v>
+      </c>
+      <c r="F27" s="12">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="G27" s="12">
+        <v>3.05</v>
+      </c>
+      <c r="H27" s="12">
+        <v>5.9169999999999998</v>
+      </c>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
+      <c r="K27" s="12">
+        <v>1.196</v>
+      </c>
+      <c r="L27" s="12">
+        <v>169.714</v>
+      </c>
+      <c r="M27" s="12">
+        <v>54.65</v>
+      </c>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
@@ -9150,33 +9726,61 @@
       <c r="R27" s="12"/>
       <c r="S27" s="12"/>
       <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
+      <c r="U27" s="12">
+        <v>28.265000000000001</v>
+      </c>
+      <c r="V27" s="12">
+        <v>308.05099999999999</v>
+      </c>
+      <c r="W27" s="12">
+        <v>295.33600000000001</v>
+      </c>
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="12"/>
+      <c r="Z27" s="12">
+        <v>0.123</v>
+      </c>
+      <c r="AA27" s="12">
+        <v>3.3580000000000001</v>
+      </c>
+      <c r="AB27" s="12">
+        <v>1.9970000000000001</v>
+      </c>
       <c r="AC27" s="12"/>
       <c r="AD27" s="12"/>
-      <c r="AE27" s="12"/>
-      <c r="AF27" s="12"/>
-      <c r="AG27" s="12"/>
+      <c r="AE27" s="12">
+        <v>0.437</v>
+      </c>
+      <c r="AF27" s="12">
+        <v>23.643999999999998</v>
+      </c>
+      <c r="AG27" s="12">
+        <v>22.323</v>
+      </c>
       <c r="AH27" s="12"/>
       <c r="AI27" s="12"/>
-      <c r="AJ27" s="12"/>
-      <c r="AK27" s="12"/>
-      <c r="AL27" s="12"/>
+      <c r="AJ27" s="12">
+        <v>1.177</v>
+      </c>
+      <c r="AK27" s="12">
+        <v>34.432000000000002</v>
+      </c>
+      <c r="AL27" s="12">
+        <v>155.81</v>
+      </c>
       <c r="AM27" s="12"/>
       <c r="AN27" s="12"/>
       <c r="AO27" s="12"/>
       <c r="AP27" s="12"/>
-      <c r="AQ27" s="12"/>
-      <c r="AR27" s="12"/>
+      <c r="AQ27" s="12">
+        <v>174.44800000000001</v>
+      </c>
+      <c r="AR27" s="12">
+        <v>24.06</v>
+      </c>
       <c r="AS27" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>198.50800000000001</v>
       </c>
       <c r="AT27" s="12"/>
     </row>
@@ -9191,7 +9795,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J10" activeCellId="1" sqref="H10 J10"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9604,187 +10208,275 @@
       <c r="A17" s="8">
         <v>45918</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="23"/>
+      <c r="B17" s="9">
+        <v>31.29</v>
+      </c>
+      <c r="C17" s="22">
+        <v>0.7</v>
+      </c>
+      <c r="D17" s="9">
+        <v>9.23</v>
+      </c>
+      <c r="E17" s="23">
+        <v>0.67100000000000004</v>
+      </c>
       <c r="F17" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41.890999999999998</v>
       </c>
       <c r="G17" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>41.190999999999995</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>45920</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="21"/>
+      <c r="B18" s="19">
+        <v>31.670999999999999</v>
+      </c>
+      <c r="C18" s="20">
+        <v>0.63</v>
+      </c>
+      <c r="D18" s="9">
+        <v>8.875</v>
+      </c>
+      <c r="E18" s="21">
+        <v>0.67400000000000004</v>
+      </c>
       <c r="F18" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41.85</v>
       </c>
       <c r="G18" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>41.22</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>45921</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="23"/>
+      <c r="B19" s="9">
+        <v>29.858000000000001</v>
+      </c>
+      <c r="C19" s="22">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9">
+        <v>8.9</v>
+      </c>
+      <c r="E19" s="23">
+        <v>0.66200000000000003</v>
+      </c>
       <c r="F19" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39.42</v>
       </c>
       <c r="G19" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>39.42</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>45922</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="23"/>
+      <c r="B20" s="9">
+        <v>30.667999999999999</v>
+      </c>
+      <c r="C20" s="22">
+        <v>0</v>
+      </c>
+      <c r="D20" s="9">
+        <v>10.5</v>
+      </c>
+      <c r="E20" s="23">
+        <v>0.69199999999999995</v>
+      </c>
       <c r="F20" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41.86</v>
       </c>
       <c r="G20" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>41.86</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>45923</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="25"/>
+      <c r="B21" s="11">
+        <v>31.081</v>
+      </c>
+      <c r="C21" s="24">
+        <v>0</v>
+      </c>
+      <c r="D21" s="11">
+        <v>10.29</v>
+      </c>
+      <c r="E21" s="25">
+        <v>0.67800000000000005</v>
+      </c>
       <c r="F21" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42.048999999999992</v>
       </c>
       <c r="G21" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>42.048999999999992</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>45924</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="B22" s="9">
+        <v>31.843</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0</v>
+      </c>
+      <c r="D22" s="9">
+        <v>10.02</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0.69</v>
+      </c>
       <c r="F22" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42.552999999999997</v>
       </c>
       <c r="G22" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>42.552999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>45925</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="B23" s="9">
+        <v>32.412999999999997</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0</v>
+      </c>
+      <c r="D23" s="9">
+        <v>9.82</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0.747</v>
+      </c>
       <c r="F23" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42.98</v>
       </c>
       <c r="G23" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>42.98</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>45927</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="B24" s="9">
+        <v>32.646999999999998</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0</v>
+      </c>
+      <c r="D24" s="9">
+        <v>8.89</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0.79900000000000004</v>
+      </c>
       <c r="F24" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42.335999999999999</v>
       </c>
       <c r="G24" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>42.335999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>45928</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="B25" s="9">
+        <v>33.423000000000002</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0</v>
+      </c>
+      <c r="D25" s="9">
+        <v>10.58</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0.8</v>
+      </c>
       <c r="F25" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>44.802999999999997</v>
       </c>
       <c r="G25" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>44.802999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>45929</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
+      <c r="B26" s="9">
+        <v>33.283999999999999</v>
+      </c>
+      <c r="C26" s="9">
+        <v>0</v>
+      </c>
+      <c r="D26" s="9">
+        <v>10.48</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0.80400000000000005</v>
+      </c>
       <c r="F26" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>44.567999999999998</v>
       </c>
       <c r="G26" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>44.567999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>45930</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
+      <c r="B27" s="9">
+        <v>31.199000000000002</v>
+      </c>
+      <c r="C27" s="9">
+        <v>0</v>
+      </c>
+      <c r="D27" s="9">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0.78100000000000003</v>
+      </c>
       <c r="F27" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40.36</v>
       </c>
       <c r="G27" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40.36</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9807,7 +10499,7 @@
       </c>
       <c r="G29" s="28">
         <f>SUM(G2:G27)</f>
-        <v>603.27499999999986</v>
+        <v>1066.6149999999998</v>
       </c>
     </row>
   </sheetData>
@@ -9819,8 +10511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA93"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:AA85"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11305,11 +11997,11 @@
       </c>
     </row>
     <row r="33" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
     </row>
     <row r="34" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
@@ -11485,11 +12177,11 @@
       </c>
     </row>
     <row r="38" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="46"/>
-      <c r="C38" s="46"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
     </row>
     <row r="39" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
@@ -12089,11 +12781,11 @@
       <c r="C50" s="38"/>
     </row>
     <row r="52" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="46" t="s">
+      <c r="A52" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="B52" s="46"/>
-      <c r="C52" s="46"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="62"/>
       <c r="D52" s="26"/>
       <c r="E52" s="26"/>
       <c r="F52" s="36"/>
@@ -13297,11 +13989,11 @@
       <c r="Y74" s="26"/>
     </row>
     <row r="75" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="46" t="s">
+      <c r="A75" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="B75" s="46"/>
-      <c r="C75" s="46"/>
+      <c r="B75" s="62"/>
+      <c r="C75" s="62"/>
       <c r="D75" s="26"/>
       <c r="E75" s="26"/>
       <c r="F75" s="26"/>
@@ -14491,7 +15183,7 @@
   <dimension ref="A1:AA19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AA1"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14500,86 +15192,86 @@
     <col min="2" max="27" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="48" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="49">
+    <row r="1" spans="1:27" s="47" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48">
         <v>45901</v>
       </c>
-      <c r="C1" s="49">
+      <c r="C1" s="48">
         <v>45902</v>
       </c>
-      <c r="D1" s="49">
+      <c r="D1" s="48">
         <v>45903</v>
       </c>
-      <c r="E1" s="49">
+      <c r="E1" s="48">
         <v>45904</v>
       </c>
-      <c r="F1" s="49">
+      <c r="F1" s="48">
         <v>45906</v>
       </c>
-      <c r="G1" s="49">
+      <c r="G1" s="48">
         <v>45907</v>
       </c>
-      <c r="H1" s="49">
+      <c r="H1" s="48">
         <v>45908</v>
       </c>
-      <c r="I1" s="49">
+      <c r="I1" s="48">
         <v>45909</v>
       </c>
-      <c r="J1" s="49">
+      <c r="J1" s="48">
         <v>45910</v>
       </c>
-      <c r="K1" s="49">
+      <c r="K1" s="48">
         <v>45911</v>
       </c>
-      <c r="L1" s="49">
+      <c r="L1" s="48">
         <v>45913</v>
       </c>
-      <c r="M1" s="49">
+      <c r="M1" s="48">
         <v>45914</v>
       </c>
-      <c r="N1" s="49">
+      <c r="N1" s="48">
         <v>45915</v>
       </c>
-      <c r="O1" s="49">
+      <c r="O1" s="48">
         <v>45916</v>
       </c>
-      <c r="P1" s="49">
+      <c r="P1" s="52">
         <v>45917</v>
       </c>
-      <c r="Q1" s="49">
+      <c r="Q1" s="48">
         <v>45918</v>
       </c>
-      <c r="R1" s="49">
+      <c r="R1" s="53">
         <v>45920</v>
       </c>
-      <c r="S1" s="49">
+      <c r="S1" s="48">
         <v>45921</v>
       </c>
-      <c r="T1" s="49">
+      <c r="T1" s="48">
         <v>45922</v>
       </c>
-      <c r="U1" s="49">
+      <c r="U1" s="48">
         <v>45923</v>
       </c>
-      <c r="V1" s="49">
+      <c r="V1" s="48">
         <v>45924</v>
       </c>
-      <c r="W1" s="49">
+      <c r="W1" s="48">
         <v>45925</v>
       </c>
-      <c r="X1" s="49">
+      <c r="X1" s="48">
         <v>45927</v>
       </c>
-      <c r="Y1" s="49">
+      <c r="Y1" s="48">
         <v>45928</v>
       </c>
-      <c r="Z1" s="49">
+      <c r="Z1" s="48">
         <v>45929</v>
       </c>
-      <c r="AA1" s="49">
+      <c r="AA1" s="48">
         <v>45930</v>
       </c>
     </row>
@@ -14629,20 +15321,42 @@
       <c r="O2" s="32">
         <v>144.5</v>
       </c>
-      <c r="P2" s="32">
+      <c r="P2" s="49">
         <v>146</v>
       </c>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
+      <c r="Q2" s="57">
+        <v>146</v>
+      </c>
+      <c r="R2" s="54">
+        <v>146</v>
+      </c>
+      <c r="S2" s="55">
+        <v>145</v>
+      </c>
+      <c r="T2" s="56">
+        <v>146</v>
+      </c>
+      <c r="U2" s="55">
+        <v>146</v>
+      </c>
+      <c r="V2" s="55">
+        <v>146</v>
+      </c>
+      <c r="W2" s="55">
+        <v>146</v>
+      </c>
+      <c r="X2" s="55">
+        <v>146</v>
+      </c>
+      <c r="Y2" s="55">
+        <v>146</v>
+      </c>
+      <c r="Z2" s="55">
+        <v>146</v>
+      </c>
+      <c r="AA2" s="32">
+        <v>135</v>
+      </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -14690,20 +15404,42 @@
       <c r="O3" s="12">
         <v>1.78</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="50">
         <v>1.78</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
+      <c r="Q3" s="58">
+        <v>1.8</v>
+      </c>
+      <c r="R3" s="51">
+        <v>1.76</v>
+      </c>
+      <c r="S3" s="12">
+        <v>1.79</v>
+      </c>
+      <c r="T3" s="12">
+        <v>1.8049999999999999</v>
+      </c>
+      <c r="U3" s="12">
+        <v>1.78</v>
+      </c>
+      <c r="V3" s="12">
+        <v>1.74</v>
+      </c>
+      <c r="W3" s="12">
+        <v>1.97</v>
+      </c>
+      <c r="X3" s="12">
+        <v>1.76</v>
+      </c>
+      <c r="Y3" s="12">
+        <v>1.7603</v>
+      </c>
+      <c r="Z3" s="12">
+        <v>1.76</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>1.74</v>
+      </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
@@ -14751,20 +15487,42 @@
       <c r="O4" s="12">
         <v>1.1299999999999999</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="50">
         <v>1.1200000000000001</v>
       </c>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
+      <c r="Q4" s="58">
+        <v>1.135</v>
+      </c>
+      <c r="R4" s="51">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="S4" s="12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="T4" s="12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U4" s="12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="V4" s="12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="W4" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="X4" s="12">
+        <v>0.19</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
@@ -14812,20 +15570,42 @@
       <c r="O5" s="12">
         <v>0.65</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="50">
         <v>0.63800000000000001</v>
       </c>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
+      <c r="Q5" s="39">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="R5" s="51">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="S5" s="12">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="T5" s="12">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="U5" s="12">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="V5" s="12">
+        <v>0.65</v>
+      </c>
+      <c r="W5" s="12">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="X5" s="12">
+        <v>0.625</v>
+      </c>
+      <c r="Y5" s="12">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="Z5" s="12">
+        <v>0.61</v>
+      </c>
+      <c r="AA5" s="12">
+        <v>0.40500000000000003</v>
+      </c>
     </row>
     <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -14873,20 +15653,42 @@
       <c r="O6" s="12">
         <v>16.693999999999999</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="50">
         <v>17.187999999999999</v>
       </c>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
+      <c r="Q6" s="59">
+        <v>17.263999999999999</v>
+      </c>
+      <c r="R6" s="51">
+        <v>17.088999999999999</v>
+      </c>
+      <c r="S6" s="12">
+        <v>16.254000000000001</v>
+      </c>
+      <c r="T6" s="12">
+        <v>17.07</v>
+      </c>
+      <c r="U6" s="12">
+        <v>16.672000000000001</v>
+      </c>
+      <c r="V6" s="12">
+        <v>16.61</v>
+      </c>
+      <c r="W6" s="12">
+        <v>17.193999999999999</v>
+      </c>
+      <c r="X6" s="12">
+        <v>16.669</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>15.7</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>16.829999999999998</v>
+      </c>
+      <c r="AA6" s="12">
+        <v>16.68</v>
+      </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -14934,20 +15736,42 @@
       <c r="O7" s="12">
         <v>0</v>
       </c>
-      <c r="P7" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
+      <c r="P7" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>0</v>
+      </c>
+      <c r="R7" s="12">
+        <v>0</v>
+      </c>
+      <c r="S7" s="12">
+        <v>0</v>
+      </c>
+      <c r="T7" s="12">
+        <v>0</v>
+      </c>
+      <c r="U7" s="12">
+        <v>0</v>
+      </c>
+      <c r="V7" s="12">
+        <v>0</v>
+      </c>
+      <c r="W7" s="12">
+        <v>0</v>
+      </c>
+      <c r="X7" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -14995,20 +15819,42 @@
       <c r="O8" s="12">
         <v>0</v>
       </c>
-      <c r="P8" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
+      <c r="P8" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>0</v>
+      </c>
+      <c r="R8" s="12">
+        <v>0</v>
+      </c>
+      <c r="S8" s="12">
+        <v>0</v>
+      </c>
+      <c r="T8" s="12">
+        <v>0</v>
+      </c>
+      <c r="U8" s="12">
+        <v>0</v>
+      </c>
+      <c r="V8" s="12">
+        <v>0</v>
+      </c>
+      <c r="W8" s="12">
+        <v>0</v>
+      </c>
+      <c r="X8" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
@@ -15056,20 +15902,42 @@
       <c r="O9" s="12">
         <v>0</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="50">
         <v>1.8</v>
       </c>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
+      <c r="Q9" s="60">
+        <v>0</v>
+      </c>
+      <c r="R9" s="51">
+        <v>2.1</v>
+      </c>
+      <c r="S9" s="12">
+        <v>2.17</v>
+      </c>
+      <c r="T9" s="12">
+        <v>0</v>
+      </c>
+      <c r="U9" s="12">
+        <v>0</v>
+      </c>
+      <c r="V9" s="12">
+        <v>0</v>
+      </c>
+      <c r="W9" s="12">
+        <v>0</v>
+      </c>
+      <c r="X9" s="12">
+        <v>1.89</v>
+      </c>
+      <c r="Y9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
@@ -15117,20 +15985,42 @@
       <c r="O10" s="12">
         <v>10.843999999999999</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="50">
         <v>10.638</v>
       </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
+      <c r="Q10" s="12">
+        <v>10.28</v>
+      </c>
+      <c r="R10" s="51">
+        <v>9.39</v>
+      </c>
+      <c r="S10" s="12">
+        <v>9.44</v>
+      </c>
+      <c r="T10" s="12">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="U10" s="12">
+        <v>9.44</v>
+      </c>
+      <c r="V10" s="12">
+        <v>9.49</v>
+      </c>
+      <c r="W10" s="12">
+        <v>9.36</v>
+      </c>
+      <c r="X10" s="12">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="Y10" s="12">
+        <v>9.44</v>
+      </c>
+      <c r="Z10" s="12">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="AA10" s="12">
+        <v>9.07</v>
+      </c>
     </row>
     <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
@@ -15178,20 +16068,42 @@
       <c r="O11" s="12">
         <v>3.99</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="50">
         <v>3.97</v>
       </c>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
+      <c r="Q11" s="39">
+        <v>3.98</v>
+      </c>
+      <c r="R11" s="51">
+        <v>3.86</v>
+      </c>
+      <c r="S11" s="12">
+        <v>4.25</v>
+      </c>
+      <c r="T11" s="12">
+        <v>4.47</v>
+      </c>
+      <c r="U11" s="12">
+        <v>5.28</v>
+      </c>
+      <c r="V11" s="12">
+        <v>5.16</v>
+      </c>
+      <c r="W11" s="12">
+        <v>5.24</v>
+      </c>
+      <c r="X11" s="12">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Y11" s="12">
+        <v>5.08</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>5.2</v>
+      </c>
+      <c r="AA11" s="12">
+        <v>3.88</v>
+      </c>
     </row>
     <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
@@ -15239,20 +16151,42 @@
       <c r="O12" s="12">
         <v>5.87</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="50">
         <v>3.82</v>
       </c>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
+      <c r="Q12" s="59">
+        <v>5.69</v>
+      </c>
+      <c r="R12" s="51">
+        <v>4.4050000000000002</v>
+      </c>
+      <c r="S12" s="12">
+        <v>5</v>
+      </c>
+      <c r="T12" s="12">
+        <v>7.22</v>
+      </c>
+      <c r="U12" s="12">
+        <v>6.18</v>
+      </c>
+      <c r="V12" s="12">
+        <v>6.22</v>
+      </c>
+      <c r="W12" s="12">
+        <v>5.56</v>
+      </c>
+      <c r="X12" s="12">
+        <v>4.93</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>6.83</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>5.26</v>
+      </c>
     </row>
     <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
@@ -15300,20 +16234,42 @@
       <c r="O13" s="12">
         <v>0</v>
       </c>
-      <c r="P13" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
+      <c r="P13" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="50">
+        <v>0</v>
+      </c>
+      <c r="R13" s="50">
+        <v>0</v>
+      </c>
+      <c r="S13" s="50">
+        <v>0</v>
+      </c>
+      <c r="T13" s="50">
+        <v>0</v>
+      </c>
+      <c r="U13" s="50">
+        <v>0</v>
+      </c>
+      <c r="V13" s="50">
+        <v>0</v>
+      </c>
+      <c r="W13" s="50">
+        <v>0</v>
+      </c>
+      <c r="X13" s="50">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -15361,20 +16317,42 @@
       <c r="O14" s="12">
         <v>0</v>
       </c>
-      <c r="P14" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
+      <c r="P14" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>0.27</v>
+      </c>
+      <c r="R14" s="51">
+        <v>0.52</v>
+      </c>
+      <c r="S14" s="12">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="T14" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="U14" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="V14" s="12">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="W14" s="12">
+        <v>0.53</v>
+      </c>
+      <c r="X14" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="Y14" s="12">
+        <v>2.13</v>
+      </c>
+      <c r="Z14" s="12">
+        <v>0.82</v>
+      </c>
+      <c r="AA14" s="12">
+        <v>1.62</v>
+      </c>
     </row>
     <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -15422,20 +16400,42 @@
       <c r="O15" s="12">
         <v>0</v>
       </c>
-      <c r="P15" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
+      <c r="P15" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="50">
+        <v>0</v>
+      </c>
+      <c r="R15" s="50">
+        <v>0</v>
+      </c>
+      <c r="S15" s="50">
+        <v>0</v>
+      </c>
+      <c r="T15" s="50">
+        <v>0</v>
+      </c>
+      <c r="U15" s="50">
+        <v>0</v>
+      </c>
+      <c r="V15" s="50">
+        <v>0</v>
+      </c>
+      <c r="W15" s="50">
+        <v>0</v>
+      </c>
+      <c r="X15" s="50">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
@@ -15483,20 +16483,42 @@
       <c r="O16" s="12">
         <v>0</v>
       </c>
-      <c r="P16" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
+      <c r="P16" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="50">
+        <v>0</v>
+      </c>
+      <c r="R16" s="50">
+        <v>0</v>
+      </c>
+      <c r="S16" s="50">
+        <v>0</v>
+      </c>
+      <c r="T16" s="50">
+        <v>0</v>
+      </c>
+      <c r="U16" s="50">
+        <v>0</v>
+      </c>
+      <c r="V16" s="50">
+        <v>0</v>
+      </c>
+      <c r="W16" s="50">
+        <v>0</v>
+      </c>
+      <c r="X16" s="50">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -15544,20 +16566,42 @@
       <c r="O17" s="12">
         <v>0</v>
       </c>
-      <c r="P17" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
+      <c r="P17" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="50">
+        <v>0</v>
+      </c>
+      <c r="R17" s="50">
+        <v>0</v>
+      </c>
+      <c r="S17" s="50">
+        <v>0</v>
+      </c>
+      <c r="T17" s="50">
+        <v>0</v>
+      </c>
+      <c r="U17" s="50">
+        <v>0</v>
+      </c>
+      <c r="V17" s="50">
+        <v>0</v>
+      </c>
+      <c r="W17" s="50">
+        <v>0</v>
+      </c>
+      <c r="X17" s="50">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
@@ -15605,20 +16649,42 @@
       <c r="O18" s="12">
         <v>3.2749999999999999</v>
       </c>
-      <c r="P18" s="12">
+      <c r="P18" s="50">
         <v>3.28</v>
       </c>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
+      <c r="Q18" s="61">
+        <v>3.54</v>
+      </c>
+      <c r="R18" s="51">
+        <v>4.47</v>
+      </c>
+      <c r="S18" s="12">
+        <v>3.9</v>
+      </c>
+      <c r="T18" s="12">
+        <v>3.28</v>
+      </c>
+      <c r="U18" s="12">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="V18" s="12">
+        <v>3.8</v>
+      </c>
+      <c r="W18" s="12">
+        <v>4.26</v>
+      </c>
+      <c r="X18" s="12">
+        <v>3.96</v>
+      </c>
+      <c r="Y18" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Z18" s="12">
+        <v>3.65</v>
+      </c>
+      <c r="AA18" s="12">
+        <v>3.12</v>
+      </c>
     </row>
     <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
@@ -15666,20 +16732,42 @@
       <c r="O19" s="12">
         <v>0.95499999999999996</v>
       </c>
-      <c r="P19" s="12">
+      <c r="P19" s="50">
         <v>0.92</v>
       </c>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
+      <c r="Q19" s="58">
+        <v>0.94</v>
+      </c>
+      <c r="R19" s="51">
+        <v>0.88</v>
+      </c>
+      <c r="S19" s="12">
+        <v>0.94</v>
+      </c>
+      <c r="T19" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="U19" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="V19" s="12">
+        <v>0.94</v>
+      </c>
+      <c r="W19" s="12">
+        <v>0.94</v>
+      </c>
+      <c r="X19" s="12">
+        <v>0.94</v>
+      </c>
+      <c r="Y19" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="Z19" s="12">
+        <v>0.96</v>
+      </c>
+      <c r="AA19" s="12">
+        <v>0.94</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15691,8 +16779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15701,86 +16789,86 @@
     <col min="2" max="27" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="48" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="49">
+    <row r="1" spans="1:27" s="47" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48">
         <v>45901</v>
       </c>
-      <c r="C1" s="49">
+      <c r="C1" s="48">
         <v>45902</v>
       </c>
-      <c r="D1" s="49">
+      <c r="D1" s="48">
         <v>45903</v>
       </c>
-      <c r="E1" s="49">
+      <c r="E1" s="48">
         <v>45904</v>
       </c>
-      <c r="F1" s="49">
+      <c r="F1" s="48">
         <v>45906</v>
       </c>
-      <c r="G1" s="49">
+      <c r="G1" s="48">
         <v>45907</v>
       </c>
-      <c r="H1" s="49">
+      <c r="H1" s="48">
         <v>45908</v>
       </c>
-      <c r="I1" s="49">
+      <c r="I1" s="48">
         <v>45909</v>
       </c>
-      <c r="J1" s="49">
+      <c r="J1" s="48">
         <v>45910</v>
       </c>
-      <c r="K1" s="49">
+      <c r="K1" s="48">
         <v>45911</v>
       </c>
-      <c r="L1" s="49">
+      <c r="L1" s="48">
         <v>45913</v>
       </c>
-      <c r="M1" s="49">
+      <c r="M1" s="48">
         <v>45914</v>
       </c>
-      <c r="N1" s="49">
+      <c r="N1" s="48">
         <v>45915</v>
       </c>
-      <c r="O1" s="49">
+      <c r="O1" s="48">
         <v>45916</v>
       </c>
-      <c r="P1" s="49">
+      <c r="P1" s="48">
         <v>45917</v>
       </c>
-      <c r="Q1" s="49">
+      <c r="Q1" s="48">
         <v>45918</v>
       </c>
-      <c r="R1" s="49">
+      <c r="R1" s="48">
         <v>45920</v>
       </c>
-      <c r="S1" s="49">
+      <c r="S1" s="48">
         <v>45921</v>
       </c>
-      <c r="T1" s="49">
+      <c r="T1" s="48">
         <v>45922</v>
       </c>
-      <c r="U1" s="49">
+      <c r="U1" s="48">
         <v>45923</v>
       </c>
-      <c r="V1" s="49">
+      <c r="V1" s="48">
         <v>45924</v>
       </c>
-      <c r="W1" s="49">
+      <c r="W1" s="48">
         <v>45925</v>
       </c>
-      <c r="X1" s="49">
+      <c r="X1" s="48">
         <v>45927</v>
       </c>
-      <c r="Y1" s="49">
+      <c r="Y1" s="48">
         <v>45928</v>
       </c>
-      <c r="Z1" s="49">
+      <c r="Z1" s="48">
         <v>45929</v>
       </c>
-      <c r="AA1" s="49">
+      <c r="AA1" s="48">
         <v>45930</v>
       </c>
     </row>
@@ -15833,17 +16921,39 @@
       <c r="P2" s="12">
         <v>0.67900000000000005</v>
       </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
+      <c r="Q2" s="12">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="R2" s="12">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="S2" s="12">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="T2" s="12">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="U2" s="12">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="V2" s="12">
+        <v>0.69</v>
+      </c>
+      <c r="W2" s="12">
+        <v>0.747</v>
+      </c>
+      <c r="X2" s="12">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="Y2" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="Z2" s="12">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="AA2" s="12">
+        <v>0.78100000000000003</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15855,7 +16965,8 @@
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15864,86 +16975,86 @@
     <col min="2" max="27" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="48" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="49">
+    <row r="1" spans="1:27" s="47" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48">
         <v>45901</v>
       </c>
-      <c r="C1" s="49">
+      <c r="C1" s="48">
         <v>45902</v>
       </c>
-      <c r="D1" s="49">
+      <c r="D1" s="48">
         <v>45903</v>
       </c>
-      <c r="E1" s="49">
+      <c r="E1" s="48">
         <v>45904</v>
       </c>
-      <c r="F1" s="49">
+      <c r="F1" s="48">
         <v>45906</v>
       </c>
-      <c r="G1" s="49">
+      <c r="G1" s="48">
         <v>45907</v>
       </c>
-      <c r="H1" s="49">
+      <c r="H1" s="48">
         <v>45908</v>
       </c>
-      <c r="I1" s="49">
+      <c r="I1" s="48">
         <v>45909</v>
       </c>
-      <c r="J1" s="49">
+      <c r="J1" s="48">
         <v>45910</v>
       </c>
-      <c r="K1" s="49">
+      <c r="K1" s="48">
         <v>45911</v>
       </c>
-      <c r="L1" s="49">
+      <c r="L1" s="48">
         <v>45913</v>
       </c>
-      <c r="M1" s="49">
+      <c r="M1" s="48">
         <v>45914</v>
       </c>
-      <c r="N1" s="49">
+      <c r="N1" s="48">
         <v>45915</v>
       </c>
-      <c r="O1" s="49">
+      <c r="O1" s="48">
         <v>45916</v>
       </c>
-      <c r="P1" s="49">
+      <c r="P1" s="48">
         <v>45917</v>
       </c>
-      <c r="Q1" s="49">
+      <c r="Q1" s="48">
         <v>45918</v>
       </c>
-      <c r="R1" s="49">
+      <c r="R1" s="48">
         <v>45920</v>
       </c>
-      <c r="S1" s="49">
+      <c r="S1" s="48">
         <v>45921</v>
       </c>
-      <c r="T1" s="49">
+      <c r="T1" s="48">
         <v>45922</v>
       </c>
-      <c r="U1" s="49">
+      <c r="U1" s="48">
         <v>45923</v>
       </c>
-      <c r="V1" s="49">
+      <c r="V1" s="48">
         <v>45924</v>
       </c>
-      <c r="W1" s="49">
+      <c r="W1" s="48">
         <v>45925</v>
       </c>
-      <c r="X1" s="49">
+      <c r="X1" s="48">
         <v>45927</v>
       </c>
-      <c r="Y1" s="49">
+      <c r="Y1" s="48">
         <v>45928</v>
       </c>
-      <c r="Z1" s="49">
+      <c r="Z1" s="48">
         <v>45929</v>
       </c>
-      <c r="AA1" s="49">
+      <c r="AA1" s="48">
         <v>45930</v>
       </c>
     </row>
@@ -16004,17 +17115,44 @@
       <c r="P2" s="12">
         <v>1.1479999999999999</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
+      <c r="Q2" s="12">
+        <f>0.551+0.433+0.131</f>
+        <v>1.115</v>
+      </c>
+      <c r="R2" s="12">
+        <f>0.251+0.368+0.433+0.197</f>
+        <v>1.2490000000000001</v>
+      </c>
+      <c r="S2" s="12">
+        <v>1.214</v>
+      </c>
+      <c r="T2" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="U2" s="12">
+        <f>0.368+0.65+0.131</f>
+        <v>1.149</v>
+      </c>
+      <c r="V2" s="12">
+        <v>1.196</v>
+      </c>
+      <c r="W2" s="12">
+        <v>1.214</v>
+      </c>
+      <c r="X2" s="12">
+        <v>1.28</v>
+      </c>
+      <c r="Y2" s="12">
+        <f>0.503+0.217+0.264+0.197</f>
+        <v>1.181</v>
+      </c>
+      <c r="Z2" s="12">
+        <f>0.503+0.184+0.217+0.197</f>
+        <v>1.101</v>
+      </c>
+      <c r="AA2" s="12">
+        <v>1.196</v>
+      </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -16065,17 +17203,39 @@
       <c r="P3" s="12">
         <v>0</v>
       </c>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
+      <c r="Q3" s="12">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="R3" s="12">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="S3" s="12">
+        <v>0</v>
+      </c>
+      <c r="T3" s="12">
+        <v>0</v>
+      </c>
+      <c r="U3" s="12">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="V3" s="12">
+        <v>0</v>
+      </c>
+      <c r="W3" s="12">
+        <v>0</v>
+      </c>
+      <c r="X3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="12">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="Z3" s="12">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
@@ -16126,17 +17286,39 @@
       <c r="P4" s="12">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
+      <c r="Q4" s="12">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="R4" s="12">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="S4" s="12">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="T4" s="12">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="U4" s="12">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="V4" s="12">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="W4" s="12">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="X4" s="12">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="AA4" s="12">
+        <v>0.123</v>
+      </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
@@ -16187,17 +17369,39 @@
       <c r="P5" s="12">
         <v>27.221</v>
       </c>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
+      <c r="Q5" s="12">
+        <v>27.663</v>
+      </c>
+      <c r="R5" s="12">
+        <v>27.875</v>
+      </c>
+      <c r="S5" s="12">
+        <v>26.923999999999999</v>
+      </c>
+      <c r="T5" s="12">
+        <v>27.687999999999999</v>
+      </c>
+      <c r="U5" s="12">
+        <v>27.751000000000001</v>
+      </c>
+      <c r="V5" s="12">
+        <v>28.907</v>
+      </c>
+      <c r="W5" s="12">
+        <v>29.306000000000001</v>
+      </c>
+      <c r="X5" s="12">
+        <v>29.597000000000001</v>
+      </c>
+      <c r="Y5" s="12">
+        <v>29.69</v>
+      </c>
+      <c r="Z5" s="12">
+        <v>29.567</v>
+      </c>
+      <c r="AA5" s="12">
+        <v>28.265000000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -16248,17 +17452,39 @@
       <c r="P6" s="12">
         <v>1.284</v>
       </c>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
+      <c r="Q6" s="12">
+        <v>1.284</v>
+      </c>
+      <c r="R6" s="12">
+        <v>1.177</v>
+      </c>
+      <c r="S6" s="12">
+        <v>1.177</v>
+      </c>
+      <c r="T6" s="12">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="U6" s="12">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="V6" s="12">
+        <v>1.177</v>
+      </c>
+      <c r="W6" s="12">
+        <v>1.284</v>
+      </c>
+      <c r="X6" s="12">
+        <v>1.177</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>1.177</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>1.284</v>
+      </c>
+      <c r="AA6" s="12">
+        <v>1.177</v>
+      </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -16309,17 +17535,39 @@
       <c r="P7" s="12">
         <v>0.371</v>
       </c>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
+      <c r="Q7" s="12">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="R7" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="S7" s="12">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="T7" s="12">
+        <v>0.47</v>
+      </c>
+      <c r="U7" s="12">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="V7" s="12">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="W7" s="12">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="X7" s="12">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="Y7" s="12">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="Z7" s="12">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="AA7" s="12">
+        <v>0.437</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16328,10 +17576,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA17"/>
+  <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16340,86 +17588,86 @@
     <col min="2" max="27" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="48" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="49">
+    <row r="1" spans="1:27" s="47" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48">
         <v>45901</v>
       </c>
-      <c r="C1" s="49">
+      <c r="C1" s="48">
         <v>45902</v>
       </c>
-      <c r="D1" s="49">
+      <c r="D1" s="48">
         <v>45903</v>
       </c>
-      <c r="E1" s="49">
+      <c r="E1" s="48">
         <v>45904</v>
       </c>
-      <c r="F1" s="49">
+      <c r="F1" s="48">
         <v>45906</v>
       </c>
-      <c r="G1" s="49">
+      <c r="G1" s="48">
         <v>45907</v>
       </c>
-      <c r="H1" s="49">
+      <c r="H1" s="48">
         <v>45908</v>
       </c>
-      <c r="I1" s="49">
+      <c r="I1" s="48">
         <v>45909</v>
       </c>
-      <c r="J1" s="49">
+      <c r="J1" s="48">
         <v>45910</v>
       </c>
-      <c r="K1" s="49">
+      <c r="K1" s="48">
         <v>45911</v>
       </c>
-      <c r="L1" s="49">
+      <c r="L1" s="48">
         <v>45913</v>
       </c>
-      <c r="M1" s="49">
+      <c r="M1" s="48">
         <v>45914</v>
       </c>
-      <c r="N1" s="49">
+      <c r="N1" s="48">
         <v>45915</v>
       </c>
-      <c r="O1" s="49">
+      <c r="O1" s="48">
         <v>45916</v>
       </c>
-      <c r="P1" s="49">
+      <c r="P1" s="48">
         <v>45917</v>
       </c>
-      <c r="Q1" s="49">
+      <c r="Q1" s="48">
         <v>45918</v>
       </c>
-      <c r="R1" s="49">
+      <c r="R1" s="48">
         <v>45920</v>
       </c>
-      <c r="S1" s="49">
+      <c r="S1" s="48">
         <v>45921</v>
       </c>
-      <c r="T1" s="49">
+      <c r="T1" s="48">
         <v>45922</v>
       </c>
-      <c r="U1" s="49">
+      <c r="U1" s="48">
         <v>45923</v>
       </c>
-      <c r="V1" s="49">
+      <c r="V1" s="48">
         <v>45924</v>
       </c>
-      <c r="W1" s="49">
+      <c r="W1" s="48">
         <v>45925</v>
       </c>
-      <c r="X1" s="49">
+      <c r="X1" s="48">
         <v>45927</v>
       </c>
-      <c r="Y1" s="49">
+      <c r="Y1" s="48">
         <v>45928</v>
       </c>
-      <c r="Z1" s="49">
+      <c r="Z1" s="48">
         <v>45929</v>
       </c>
-      <c r="AA1" s="49">
+      <c r="AA1" s="48">
         <v>45930</v>
       </c>
     </row>
@@ -16472,17 +17720,39 @@
       <c r="P2" s="12">
         <v>0</v>
       </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
+      <c r="Q2" s="12">
+        <v>0</v>
+      </c>
+      <c r="R2" s="12">
+        <v>0</v>
+      </c>
+      <c r="S2" s="12">
+        <v>0</v>
+      </c>
+      <c r="T2" s="12">
+        <v>0</v>
+      </c>
+      <c r="U2" s="12">
+        <v>0</v>
+      </c>
+      <c r="V2" s="12">
+        <v>0</v>
+      </c>
+      <c r="W2" s="12">
+        <v>0</v>
+      </c>
+      <c r="X2" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -16533,17 +17803,39 @@
       <c r="P3" s="12">
         <v>0</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
+      <c r="Q3" s="12">
+        <v>0</v>
+      </c>
+      <c r="R3" s="12">
+        <v>0</v>
+      </c>
+      <c r="S3" s="12">
+        <v>0</v>
+      </c>
+      <c r="T3" s="12">
+        <v>0</v>
+      </c>
+      <c r="U3" s="12">
+        <v>0</v>
+      </c>
+      <c r="V3" s="12">
+        <v>0</v>
+      </c>
+      <c r="W3" s="12">
+        <v>0</v>
+      </c>
+      <c r="X3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
@@ -16594,17 +17886,39 @@
       <c r="P4" s="12">
         <v>6.5</v>
       </c>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
+      <c r="Q4" s="12">
+        <v>6.75</v>
+      </c>
+      <c r="R4" s="12">
+        <v>7.25</v>
+      </c>
+      <c r="S4" s="12">
+        <v>7.25</v>
+      </c>
+      <c r="T4" s="12">
+        <v>7</v>
+      </c>
+      <c r="U4" s="12">
+        <v>7.25</v>
+      </c>
+      <c r="V4" s="12">
+        <v>7</v>
+      </c>
+      <c r="W4" s="12">
+        <v>7</v>
+      </c>
+      <c r="X4" s="12">
+        <v>8.25</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>8</v>
+      </c>
+      <c r="AA4" s="12">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
@@ -16655,17 +17969,39 @@
       <c r="P5" s="12">
         <v>1.25</v>
       </c>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
+      <c r="Q5" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="R5" s="12">
+        <v>1</v>
+      </c>
+      <c r="S5" s="12">
+        <v>1</v>
+      </c>
+      <c r="T5" s="12">
+        <v>1</v>
+      </c>
+      <c r="U5" s="12">
+        <v>1</v>
+      </c>
+      <c r="V5" s="12">
+        <v>1</v>
+      </c>
+      <c r="W5" s="12">
+        <v>1</v>
+      </c>
+      <c r="X5" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="Z5" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="AA5" s="12">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -16716,17 +18052,39 @@
       <c r="P6" s="12">
         <v>22</v>
       </c>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
+      <c r="Q6" s="12">
+        <v>21.5</v>
+      </c>
+      <c r="R6" s="12">
+        <v>20</v>
+      </c>
+      <c r="S6" s="12">
+        <v>19.5</v>
+      </c>
+      <c r="T6" s="12">
+        <v>19.3</v>
+      </c>
+      <c r="U6" s="12">
+        <v>17.5</v>
+      </c>
+      <c r="V6" s="12">
+        <v>15</v>
+      </c>
+      <c r="W6" s="12">
+        <v>15</v>
+      </c>
+      <c r="X6" s="12">
+        <v>13</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>6.5</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>6.5</v>
+      </c>
+      <c r="AA6" s="12">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -16777,17 +18135,39 @@
       <c r="P7" s="12">
         <v>30</v>
       </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
+      <c r="Q7" s="12">
+        <v>30</v>
+      </c>
+      <c r="R7" s="12">
+        <v>32.5</v>
+      </c>
+      <c r="S7" s="12">
+        <v>35</v>
+      </c>
+      <c r="T7" s="12">
+        <v>35</v>
+      </c>
+      <c r="U7" s="12">
+        <v>36.5</v>
+      </c>
+      <c r="V7" s="12">
+        <v>37.5</v>
+      </c>
+      <c r="W7" s="12">
+        <v>37.5</v>
+      </c>
+      <c r="X7" s="12">
+        <v>35.6</v>
+      </c>
+      <c r="Y7" s="12">
+        <v>38.5</v>
+      </c>
+      <c r="Z7" s="12">
+        <v>36.5</v>
+      </c>
+      <c r="AA7" s="12">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -16838,17 +18218,39 @@
       <c r="P8" s="12">
         <v>60.165999999999997</v>
       </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
+      <c r="Q8" s="12">
+        <v>54.055999999999997</v>
+      </c>
+      <c r="R8" s="12">
+        <v>58.460999999999999</v>
+      </c>
+      <c r="S8" s="12">
+        <v>63.460999999999999</v>
+      </c>
+      <c r="T8" s="12">
+        <v>60.045999999999999</v>
+      </c>
+      <c r="U8" s="12">
+        <v>54.646000000000001</v>
+      </c>
+      <c r="V8" s="12">
+        <v>60.866</v>
+      </c>
+      <c r="W8" s="12">
+        <v>60.866</v>
+      </c>
+      <c r="X8" s="12">
+        <v>60.015999999999998</v>
+      </c>
+      <c r="Y8" s="12">
+        <v>57.527999999999999</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>64.358000000000004</v>
+      </c>
+      <c r="AA8" s="12">
+        <v>69.617999999999995</v>
+      </c>
     </row>
     <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
@@ -16899,17 +18301,39 @@
       <c r="P9" s="12">
         <v>0</v>
       </c>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
+      <c r="Q9" s="12">
+        <v>0</v>
+      </c>
+      <c r="R9" s="12">
+        <v>0</v>
+      </c>
+      <c r="S9" s="12">
+        <v>0</v>
+      </c>
+      <c r="T9" s="12">
+        <v>0</v>
+      </c>
+      <c r="U9" s="12">
+        <v>0</v>
+      </c>
+      <c r="V9" s="12">
+        <v>0</v>
+      </c>
+      <c r="W9" s="12">
+        <v>0</v>
+      </c>
+      <c r="X9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
@@ -16960,17 +18384,39 @@
       <c r="P10" s="12">
         <v>0</v>
       </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
+      <c r="Q10" s="12">
+        <v>0</v>
+      </c>
+      <c r="R10" s="12">
+        <v>0</v>
+      </c>
+      <c r="S10" s="12">
+        <v>0</v>
+      </c>
+      <c r="T10" s="12">
+        <v>0</v>
+      </c>
+      <c r="U10" s="12">
+        <v>0</v>
+      </c>
+      <c r="V10" s="12">
+        <v>0</v>
+      </c>
+      <c r="W10" s="12">
+        <v>0</v>
+      </c>
+      <c r="X10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
@@ -17021,17 +18467,39 @@
       <c r="P11" s="12">
         <v>29.132999999999999</v>
       </c>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
+      <c r="Q11" s="12">
+        <v>23.308</v>
+      </c>
+      <c r="R11" s="12">
+        <v>27.777999999999999</v>
+      </c>
+      <c r="S11" s="12">
+        <v>31.678000000000001</v>
+      </c>
+      <c r="T11" s="12">
+        <v>26.038</v>
+      </c>
+      <c r="U11" s="12">
+        <v>30.148</v>
+      </c>
+      <c r="V11" s="12">
+        <v>33.948</v>
+      </c>
+      <c r="W11" s="12">
+        <v>33.948</v>
+      </c>
+      <c r="X11" s="12">
+        <v>23.568000000000001</v>
+      </c>
+      <c r="Y11" s="12">
+        <v>25.768000000000001</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>23.363</v>
+      </c>
+      <c r="AA11" s="12">
+        <v>26.483000000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
@@ -17082,17 +18550,39 @@
       <c r="P12" s="12">
         <v>19.225000000000001</v>
       </c>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
+      <c r="Q12" s="12">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="R12" s="12">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="S12" s="12">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="T12" s="12">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="U12" s="12">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="V12" s="12">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="W12" s="12">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="X12" s="12">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>18.347000000000001</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>18.347000000000001</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>18.347000000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
@@ -17143,17 +18633,39 @@
       <c r="P13" s="12">
         <v>0</v>
       </c>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
+      <c r="Q13" s="12">
+        <v>0</v>
+      </c>
+      <c r="R13" s="12">
+        <v>0</v>
+      </c>
+      <c r="S13" s="12">
+        <v>0</v>
+      </c>
+      <c r="T13" s="12">
+        <v>0</v>
+      </c>
+      <c r="U13" s="12">
+        <v>0</v>
+      </c>
+      <c r="V13" s="12">
+        <v>0</v>
+      </c>
+      <c r="W13" s="12">
+        <v>0</v>
+      </c>
+      <c r="X13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -17204,17 +18716,39 @@
       <c r="P14" s="12">
         <v>2.25</v>
       </c>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
+      <c r="Q14" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="R14" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="S14" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="T14" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="U14" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="V14" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="W14" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="X14" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="Y14" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="Z14" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="AA14" s="12">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -17265,17 +18799,39 @@
       <c r="P15" s="12">
         <v>0</v>
       </c>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
+      <c r="Q15" s="12">
+        <v>0</v>
+      </c>
+      <c r="R15" s="12">
+        <v>0</v>
+      </c>
+      <c r="S15" s="12">
+        <v>0</v>
+      </c>
+      <c r="T15" s="12">
+        <v>0</v>
+      </c>
+      <c r="U15" s="12">
+        <v>0</v>
+      </c>
+      <c r="V15" s="12">
+        <v>0</v>
+      </c>
+      <c r="W15" s="12">
+        <v>0</v>
+      </c>
+      <c r="X15" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
@@ -17326,17 +18882,39 @@
       <c r="P16" s="12">
         <v>2.0499999999999998</v>
       </c>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
+      <c r="Q16" s="12">
+        <v>2.9</v>
+      </c>
+      <c r="R16" s="12">
+        <v>3</v>
+      </c>
+      <c r="S16" s="12">
+        <v>3.75</v>
+      </c>
+      <c r="T16" s="12">
+        <v>3.75</v>
+      </c>
+      <c r="U16" s="12">
+        <v>3.75</v>
+      </c>
+      <c r="V16" s="12">
+        <v>3.75</v>
+      </c>
+      <c r="W16" s="12">
+        <v>3.75</v>
+      </c>
+      <c r="X16" s="12">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="12">
+        <v>4</v>
+      </c>
+      <c r="Z16" s="12">
+        <v>4.25</v>
+      </c>
+      <c r="AA16" s="12">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
@@ -17387,17 +18965,42 @@
       <c r="P17" s="12">
         <v>2</v>
       </c>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
+      <c r="Q17" s="12">
+        <v>2</v>
+      </c>
+      <c r="R17" s="12">
+        <v>2</v>
+      </c>
+      <c r="S17" s="12">
+        <v>2</v>
+      </c>
+      <c r="T17" s="12">
+        <v>2</v>
+      </c>
+      <c r="U17" s="12">
+        <v>2</v>
+      </c>
+      <c r="V17" s="12">
+        <v>2</v>
+      </c>
+      <c r="W17" s="12">
+        <v>2</v>
+      </c>
+      <c r="X17" s="12">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="12">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA17" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="S18" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17408,8 +19011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17418,86 +19021,86 @@
     <col min="2" max="27" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="48" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="49">
+    <row r="1" spans="1:27" s="47" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48">
         <v>45901</v>
       </c>
-      <c r="C1" s="49">
+      <c r="C1" s="48">
         <v>45902</v>
       </c>
-      <c r="D1" s="49">
+      <c r="D1" s="48">
         <v>45903</v>
       </c>
-      <c r="E1" s="49">
+      <c r="E1" s="48">
         <v>45904</v>
       </c>
-      <c r="F1" s="49">
+      <c r="F1" s="48">
         <v>45906</v>
       </c>
-      <c r="G1" s="49">
+      <c r="G1" s="48">
         <v>45907</v>
       </c>
-      <c r="H1" s="49">
+      <c r="H1" s="48">
         <v>45908</v>
       </c>
-      <c r="I1" s="49">
+      <c r="I1" s="48">
         <v>45909</v>
       </c>
-      <c r="J1" s="49">
+      <c r="J1" s="48">
         <v>45910</v>
       </c>
-      <c r="K1" s="49">
+      <c r="K1" s="48">
         <v>45911</v>
       </c>
-      <c r="L1" s="49">
+      <c r="L1" s="48">
         <v>45913</v>
       </c>
-      <c r="M1" s="49">
+      <c r="M1" s="48">
         <v>45914</v>
       </c>
-      <c r="N1" s="49">
+      <c r="N1" s="48">
         <v>45915</v>
       </c>
-      <c r="O1" s="49">
+      <c r="O1" s="48">
         <v>45916</v>
       </c>
-      <c r="P1" s="49">
+      <c r="P1" s="48">
         <v>45917</v>
       </c>
-      <c r="Q1" s="49">
+      <c r="Q1" s="48">
         <v>45918</v>
       </c>
-      <c r="R1" s="49">
+      <c r="R1" s="48">
         <v>45920</v>
       </c>
-      <c r="S1" s="49">
+      <c r="S1" s="48">
         <v>45921</v>
       </c>
-      <c r="T1" s="49">
+      <c r="T1" s="48">
         <v>45922</v>
       </c>
-      <c r="U1" s="49">
+      <c r="U1" s="48">
         <v>45923</v>
       </c>
-      <c r="V1" s="49">
+      <c r="V1" s="48">
         <v>45924</v>
       </c>
-      <c r="W1" s="49">
+      <c r="W1" s="48">
         <v>45925</v>
       </c>
-      <c r="X1" s="49">
+      <c r="X1" s="48">
         <v>45927</v>
       </c>
-      <c r="Y1" s="49">
+      <c r="Y1" s="48">
         <v>45928</v>
       </c>
-      <c r="Z1" s="49">
+      <c r="Z1" s="48">
         <v>45929</v>
       </c>
-      <c r="AA1" s="49">
+      <c r="AA1" s="48">
         <v>45930</v>
       </c>
     </row>
@@ -17550,17 +19153,39 @@
       <c r="P2" s="12">
         <v>1.68</v>
       </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
+      <c r="Q2" s="12">
+        <v>1.77</v>
+      </c>
+      <c r="R2" s="12">
+        <v>1.9650000000000001</v>
+      </c>
+      <c r="S2" s="12">
+        <v>2.2349999999999999</v>
+      </c>
+      <c r="T2" s="12">
+        <v>2.2349999999999999</v>
+      </c>
+      <c r="U2" s="12">
+        <v>2.5350000000000001</v>
+      </c>
+      <c r="V2" s="12">
+        <v>2.4</v>
+      </c>
+      <c r="W2" s="12">
+        <v>2.4</v>
+      </c>
+      <c r="X2" s="12">
+        <v>2.7</v>
+      </c>
+      <c r="Y2" s="12">
+        <v>2.6850000000000001</v>
+      </c>
+      <c r="Z2" s="12">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="AA2" s="12">
+        <v>1.875</v>
+      </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -17611,17 +19236,39 @@
       <c r="P3" s="12">
         <v>0</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
+      <c r="Q3" s="12">
+        <v>0</v>
+      </c>
+      <c r="R3" s="12">
+        <v>0</v>
+      </c>
+      <c r="S3" s="12">
+        <v>0</v>
+      </c>
+      <c r="T3" s="12">
+        <v>0</v>
+      </c>
+      <c r="U3" s="12">
+        <v>0</v>
+      </c>
+      <c r="V3" s="12">
+        <v>0</v>
+      </c>
+      <c r="W3" s="12">
+        <v>0</v>
+      </c>
+      <c r="X3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
@@ -17672,17 +19319,39 @@
       <c r="P4" s="12">
         <v>7.2</v>
       </c>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
+      <c r="Q4" s="12">
+        <v>6.75</v>
+      </c>
+      <c r="R4" s="12">
+        <v>5.6849999999999996</v>
+      </c>
+      <c r="S4" s="12">
+        <v>5.4</v>
+      </c>
+      <c r="T4" s="12">
+        <v>5.28</v>
+      </c>
+      <c r="U4" s="12">
+        <v>5.1749999999999998</v>
+      </c>
+      <c r="V4" s="12">
+        <v>5.7</v>
+      </c>
+      <c r="W4" s="12">
+        <v>5.7</v>
+      </c>
+      <c r="X4" s="12">
+        <v>7.47</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>9.42</v>
+      </c>
+      <c r="AA4" s="12">
+        <v>9.4499999999999993</v>
+      </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
@@ -17733,17 +19402,39 @@
       <c r="P5" s="12">
         <v>0</v>
       </c>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
+      <c r="Q5" s="12">
+        <v>0</v>
+      </c>
+      <c r="R5" s="12">
+        <v>0</v>
+      </c>
+      <c r="S5" s="12">
+        <v>0</v>
+      </c>
+      <c r="T5" s="12">
+        <v>0</v>
+      </c>
+      <c r="U5" s="12">
+        <v>0</v>
+      </c>
+      <c r="V5" s="12">
+        <v>0</v>
+      </c>
+      <c r="W5" s="12">
+        <v>0</v>
+      </c>
+      <c r="X5" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -17794,17 +19485,39 @@
       <c r="P6" s="12">
         <v>10.02</v>
       </c>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
+      <c r="Q6" s="12">
+        <v>10.02</v>
+      </c>
+      <c r="R6" s="12">
+        <v>10.02</v>
+      </c>
+      <c r="S6" s="12">
+        <v>10.02</v>
+      </c>
+      <c r="T6" s="12">
+        <v>10.02</v>
+      </c>
+      <c r="U6" s="12">
+        <v>10.02</v>
+      </c>
+      <c r="V6" s="12">
+        <v>10.02</v>
+      </c>
+      <c r="W6" s="14">
+        <v>10.02</v>
+      </c>
+      <c r="X6" s="12">
+        <v>10.02</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>10.02</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>10.02</v>
+      </c>
+      <c r="AA6" s="12">
+        <v>10.02</v>
+      </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -17855,17 +19568,39 @@
       <c r="P7" s="12">
         <v>0.9</v>
       </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
+      <c r="Q7" s="12">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="R7" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="S7" s="12">
+        <v>0.93</v>
+      </c>
+      <c r="T7" s="12">
+        <v>0.93</v>
+      </c>
+      <c r="U7" s="12">
+        <v>0.99</v>
+      </c>
+      <c r="V7" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="W7" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="X7" s="12">
+        <v>1.425</v>
+      </c>
+      <c r="Y7" s="12">
+        <v>2.1749999999999998</v>
+      </c>
+      <c r="Z7" s="12">
+        <v>1.47</v>
+      </c>
+      <c r="AA7" s="12">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -17916,17 +19651,39 @@
       <c r="P8" s="12">
         <v>0</v>
       </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
+      <c r="Q8" s="12">
+        <v>0</v>
+      </c>
+      <c r="R8" s="12">
+        <v>0</v>
+      </c>
+      <c r="S8" s="12">
+        <v>0</v>
+      </c>
+      <c r="T8" s="12">
+        <v>0</v>
+      </c>
+      <c r="U8" s="12">
+        <v>0</v>
+      </c>
+      <c r="V8" s="12">
+        <v>0</v>
+      </c>
+      <c r="W8" s="12">
+        <v>0</v>
+      </c>
+      <c r="X8" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
@@ -17977,17 +19734,39 @@
       <c r="P9" s="12">
         <v>0</v>
       </c>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
+      <c r="Q9" s="12">
+        <v>0</v>
+      </c>
+      <c r="R9" s="12">
+        <v>0</v>
+      </c>
+      <c r="S9" s="12">
+        <v>0</v>
+      </c>
+      <c r="T9" s="12">
+        <v>0</v>
+      </c>
+      <c r="U9" s="12">
+        <v>0</v>
+      </c>
+      <c r="V9" s="12">
+        <v>0</v>
+      </c>
+      <c r="W9" s="12">
+        <v>0</v>
+      </c>
+      <c r="X9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
@@ -18038,17 +19817,39 @@
       <c r="P10" s="12">
         <v>0.48</v>
       </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
+      <c r="Q10" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="R10" s="12">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="S10" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="T10" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="U10" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="V10" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="W10" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="X10" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="Y10" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="Z10" s="12">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="AA10" s="12">
+        <v>0.58499999999999996</v>
+      </c>
     </row>
     <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
@@ -18099,17 +19900,39 @@
       <c r="P11" s="12">
         <v>0.78</v>
       </c>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
+      <c r="Q11" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="R11" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="S11" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="T11" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="U11" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="V11" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="W11" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="X11" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="Y11" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="AA11" s="12">
+        <v>0.78</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
